--- a/app/config/tables/MIFVAC_CRIANCA/forms/MIFVAC_CRIANCA/MIFVAC_CRIANCA.xlsx
+++ b/app/config/tables/MIFVAC_CRIANCA/forms/MIFVAC_CRIANCA/MIFVAC_CRIANCA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAEBD33-37EE-402F-AB65-46AFD3F64891}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F05B3-717C-4AE8-B6DC-FC3116A36E74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="291">
   <si>
     <t>setting_name</t>
   </si>
@@ -195,96 +195,18 @@
     <t>YesNo</t>
   </si>
   <si>
-    <t>addvac1</t>
-  </si>
-  <si>
-    <t>Add new vaccine?</t>
-  </si>
-  <si>
-    <t>Adicione uma nova vacina?</t>
-  </si>
-  <si>
-    <t>data('addvac1') == '1'</t>
-  </si>
-  <si>
-    <t>Vaccine 1</t>
-  </si>
-  <si>
-    <t>Vacina 1</t>
-  </si>
-  <si>
-    <t>vactype</t>
-  </si>
-  <si>
-    <t>VAC1TIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of vaccine </t>
-  </si>
-  <si>
-    <t>Typo de vacina</t>
-  </si>
-  <si>
-    <t>vacinf</t>
-  </si>
-  <si>
-    <t>VAC1INF</t>
-  </si>
-  <si>
-    <t>Informant</t>
-  </si>
-  <si>
-    <t>Informante</t>
-  </si>
-  <si>
-    <t>VAC1DATA</t>
-  </si>
-  <si>
-    <t>Date of vaccine</t>
-  </si>
-  <si>
-    <t>Data da vacina</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
-    <t>exit section</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
     <t>vaccheck</t>
   </si>
   <si>
-    <t>VAC1CHECK</t>
-  </si>
-  <si>
-    <t>data('VAC1CHECK') == '2'</t>
-  </si>
-  <si>
-    <t>Load vac1</t>
-  </si>
-  <si>
-    <t>load vac1</t>
-  </si>
-  <si>
-    <t>async_assign_num_value</t>
-  </si>
-  <si>
-    <t>linked_vac1tipo</t>
-  </si>
-  <si>
     <t>async_assign_date</t>
   </si>
   <si>
-    <t>linked_vac1data</t>
-  </si>
-  <si>
-    <t>linked_vac1inf</t>
-  </si>
-  <si>
     <t>linked_table</t>
   </si>
   <si>
@@ -297,6 +219,9 @@
     <t>{}</t>
   </si>
   <si>
+    <t>vac2</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -318,24 +243,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>TT vaccine</t>
-  </si>
-  <si>
-    <t>Vacina anti-tetánica</t>
-  </si>
-  <si>
-    <t>Vaccination card</t>
-  </si>
-  <si>
-    <t>Cartão da vacina</t>
-  </si>
-  <si>
-    <t>Pregnancy card</t>
-  </si>
-  <si>
-    <t>Cartão de gravidez</t>
-  </si>
-  <si>
     <t>Correct information</t>
   </si>
   <si>
@@ -360,35 +267,10 @@
     <t>Makes the date widget DD/MM/YYYY</t>
   </si>
   <si>
-    <t>vac1tipo</t>
-  </si>
-  <si>
-    <t>vac1data</t>
-  </si>
-  <si>
-    <t>vac1inf</t>
-  </si>
-  <si>
-    <t>data('vac1data') == null</t>
-  </si>
-  <si>
-    <t>Typo de vacina: {{data.vac1tipo}}
-Informação: {{data.vac1inf}}
-Data da vacina: {{data.vac1data}}</t>
-  </si>
-  <si>
-    <t>Vaccine type: {{data.vac1tipo}}
-Information: {{data.vac1inf}}
-Date: {{data.vac1data}}</t>
-  </si>
-  <si>
-    <t>data('vac1tipo')</t>
-  </si>
-  <si>
-    <t>data('vac1inf')</t>
-  </si>
-  <si>
-    <t>data('vac1data')</t>
+    <t>vac3</t>
+  </si>
+  <si>
+    <t>vac4</t>
   </si>
   <si>
     <t>MIFVAC_CRIANCA</t>
@@ -400,7 +282,628 @@
     <t>Mulher na idade fertil - vacinas_crianca</t>
   </si>
   <si>
-    <t>MIFVAC_CRINCA</t>
+    <t>bcg</t>
+  </si>
+  <si>
+    <t>polionas</t>
+  </si>
+  <si>
+    <t>linked_bcg</t>
+  </si>
+  <si>
+    <t>linked_polionas</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>POLIONAS</t>
+  </si>
+  <si>
+    <t>Load bcg polio</t>
+  </si>
+  <si>
+    <t>data('bcg') == null</t>
+  </si>
+  <si>
+    <t>data('bcg')</t>
+  </si>
+  <si>
+    <t>BCG vaccine</t>
+  </si>
+  <si>
+    <t>BCG vacina</t>
+  </si>
+  <si>
+    <t>BCG vaccine {{data.bcg}}</t>
+  </si>
+  <si>
+    <t>BCG vacina {{data.bcg}}</t>
+  </si>
+  <si>
+    <t>BCGCHECK</t>
+  </si>
+  <si>
+    <t>data('BCGCHECK') == '2'</t>
+  </si>
+  <si>
+    <t>POLIONASCHECK</t>
+  </si>
+  <si>
+    <t>data('polionas') == null</t>
+  </si>
+  <si>
+    <t>data('polionas')</t>
+  </si>
+  <si>
+    <t>Polio vaccine</t>
+  </si>
+  <si>
+    <t>Polio vacina</t>
+  </si>
+  <si>
+    <t>data('POLIONASCHECK') == '2'</t>
+  </si>
+  <si>
+    <t>Polio vaccine {{data.polionas}}</t>
+  </si>
+  <si>
+    <t>Polio vacina {{data.polionas}}</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>notgiven</t>
+  </si>
+  <si>
+    <t>Not given</t>
+  </si>
+  <si>
+    <t>bcgng</t>
+  </si>
+  <si>
+    <t>polionasng</t>
+  </si>
+  <si>
+    <t>penta1</t>
+  </si>
+  <si>
+    <t>polio1</t>
+  </si>
+  <si>
+    <t>pcv1</t>
+  </si>
+  <si>
+    <t>rox1</t>
+  </si>
+  <si>
+    <t>POLIO1</t>
+  </si>
+  <si>
+    <t>PENTA1</t>
+  </si>
+  <si>
+    <t>PCV1</t>
+  </si>
+  <si>
+    <t>ROX1</t>
+  </si>
+  <si>
+    <t>linked_polio1</t>
+  </si>
+  <si>
+    <t>linked_penta1</t>
+  </si>
+  <si>
+    <t>linked_pcv1</t>
+  </si>
+  <si>
+    <t>linked_rox1</t>
+  </si>
+  <si>
+    <t>data('polio1') == null</t>
+  </si>
+  <si>
+    <t>data('polio1')</t>
+  </si>
+  <si>
+    <t>POLIO1CHECK</t>
+  </si>
+  <si>
+    <t>POLIO1 vaccine</t>
+  </si>
+  <si>
+    <t>POLIO1 vacina</t>
+  </si>
+  <si>
+    <t>POLIO1 vacina {{data.polio1}}</t>
+  </si>
+  <si>
+    <t>POLIO1 vaccine {{data.polio1}}</t>
+  </si>
+  <si>
+    <t>polio1ng</t>
+  </si>
+  <si>
+    <t>data('POLIO1CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('penta1') == null</t>
+  </si>
+  <si>
+    <t>data('penta1')</t>
+  </si>
+  <si>
+    <t>data('pcv1') == null</t>
+  </si>
+  <si>
+    <t>pcv1ng</t>
+  </si>
+  <si>
+    <t>penta1ng</t>
+  </si>
+  <si>
+    <t>data('pcv1')</t>
+  </si>
+  <si>
+    <t>data('rox1') == null</t>
+  </si>
+  <si>
+    <t>rox1ng</t>
+  </si>
+  <si>
+    <t>data('rox1')</t>
+  </si>
+  <si>
+    <t>PENTA1CHECK</t>
+  </si>
+  <si>
+    <t>PCV1 vaccine</t>
+  </si>
+  <si>
+    <t>PCV1 vaccine {{data.pcv1}}</t>
+  </si>
+  <si>
+    <t>PCV1 vacina</t>
+  </si>
+  <si>
+    <t>PCV1 vacina {{data.pcv1}}</t>
+  </si>
+  <si>
+    <t>PCV1CHECK</t>
+  </si>
+  <si>
+    <t>data('PCV1CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>PENTA1 vaccine</t>
+  </si>
+  <si>
+    <t>PENTA1 vacina</t>
+  </si>
+  <si>
+    <t>ROX1 vaccine</t>
+  </si>
+  <si>
+    <t>ROX1 vaccine {{data.rox1}}</t>
+  </si>
+  <si>
+    <t>ROX1 vacina</t>
+  </si>
+  <si>
+    <t>ROX1 vacina {{data.rox1}}</t>
+  </si>
+  <si>
+    <t>ROX1CHECK</t>
+  </si>
+  <si>
+    <t>data('ROX1CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('PENTA1CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('pcv2') == null</t>
+  </si>
+  <si>
+    <t>PCV2</t>
+  </si>
+  <si>
+    <t>PCV2 vaccine</t>
+  </si>
+  <si>
+    <t>PCV2 vacina</t>
+  </si>
+  <si>
+    <t>pcv2ng</t>
+  </si>
+  <si>
+    <t>PCV2CHECK</t>
+  </si>
+  <si>
+    <t>PCV2 vaccine {{data.pcv2}}</t>
+  </si>
+  <si>
+    <t>PCV2 vacina {{data.pcv2}}</t>
+  </si>
+  <si>
+    <t>data('PCV2CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('pcv2')</t>
+  </si>
+  <si>
+    <t>data('rox2') == null</t>
+  </si>
+  <si>
+    <t>ROX2</t>
+  </si>
+  <si>
+    <t>ROX2 vaccine</t>
+  </si>
+  <si>
+    <t>ROX2 vacina</t>
+  </si>
+  <si>
+    <t>rox2ng</t>
+  </si>
+  <si>
+    <t>ROX2CHECK</t>
+  </si>
+  <si>
+    <t>ROX2 vaccine {{data.rox2}}</t>
+  </si>
+  <si>
+    <t>ROX2 vacina {{data.rox2}}</t>
+  </si>
+  <si>
+    <t>data('ROX2CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('rox2')</t>
+  </si>
+  <si>
+    <t>POLIO2</t>
+  </si>
+  <si>
+    <t>POLIO2CHECK</t>
+  </si>
+  <si>
+    <t>polio2</t>
+  </si>
+  <si>
+    <t>polio2ng</t>
+  </si>
+  <si>
+    <t>PENTA2</t>
+  </si>
+  <si>
+    <t>PENTA2CHECK</t>
+  </si>
+  <si>
+    <t>penta2</t>
+  </si>
+  <si>
+    <t>penta2ng</t>
+  </si>
+  <si>
+    <t>pcv2</t>
+  </si>
+  <si>
+    <t>rox2</t>
+  </si>
+  <si>
+    <t>linked_polio2</t>
+  </si>
+  <si>
+    <t>linked_penta2</t>
+  </si>
+  <si>
+    <t>linked_pcv2</t>
+  </si>
+  <si>
+    <t>linked_rox2</t>
+  </si>
+  <si>
+    <t>data('polio2') == null</t>
+  </si>
+  <si>
+    <t>POLIO2 vaccine</t>
+  </si>
+  <si>
+    <t>POLIO2 vacina</t>
+  </si>
+  <si>
+    <t>POLIO2 vaccine {{data.polio2}}</t>
+  </si>
+  <si>
+    <t>POLIO2 vacina {{data.polio2}}</t>
+  </si>
+  <si>
+    <t>data('POLIO2CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('polio2')</t>
+  </si>
+  <si>
+    <t>data('penta2') == null</t>
+  </si>
+  <si>
+    <t>PENTA2 vaccine</t>
+  </si>
+  <si>
+    <t>PENTA2 vacina</t>
+  </si>
+  <si>
+    <t>data('PENTA2CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('penta2')</t>
+  </si>
+  <si>
+    <t>linked_polio3</t>
+  </si>
+  <si>
+    <t>polio3</t>
+  </si>
+  <si>
+    <t>linked_penta3</t>
+  </si>
+  <si>
+    <t>penta3</t>
+  </si>
+  <si>
+    <t>data('polio3') == null</t>
+  </si>
+  <si>
+    <t>POLIO3</t>
+  </si>
+  <si>
+    <t>POLIO3 vaccine</t>
+  </si>
+  <si>
+    <t>POLIO3 vacina</t>
+  </si>
+  <si>
+    <t>polio3ng</t>
+  </si>
+  <si>
+    <t>POLIO3CHECK</t>
+  </si>
+  <si>
+    <t>POLIO3 vaccine {{data.polio3}}</t>
+  </si>
+  <si>
+    <t>POLIO3 vacina {{data.polio3}}</t>
+  </si>
+  <si>
+    <t>data('polio3')</t>
+  </si>
+  <si>
+    <t>data('penta3') == null</t>
+  </si>
+  <si>
+    <t>PENTA3</t>
+  </si>
+  <si>
+    <t>PENTA3 vaccine</t>
+  </si>
+  <si>
+    <t>PENTA3 vacina</t>
+  </si>
+  <si>
+    <t>penta3ng</t>
+  </si>
+  <si>
+    <t>PENTA3CHECK</t>
+  </si>
+  <si>
+    <t>data('penta3')</t>
+  </si>
+  <si>
+    <t>linked_pcv3</t>
+  </si>
+  <si>
+    <t>pcv3</t>
+  </si>
+  <si>
+    <t>data('pcv3') == null</t>
+  </si>
+  <si>
+    <t>PCV3</t>
+  </si>
+  <si>
+    <t>PCV3 vaccine</t>
+  </si>
+  <si>
+    <t>PCV3 vacina</t>
+  </si>
+  <si>
+    <t>pcv3ng</t>
+  </si>
+  <si>
+    <t>PCV3CHECK</t>
+  </si>
+  <si>
+    <t>PCV3 vaccine {{data.pcv3}}</t>
+  </si>
+  <si>
+    <t>PCV3 vacina {{data.pcv3}}</t>
+  </si>
+  <si>
+    <t>data('pcv3')</t>
+  </si>
+  <si>
+    <t>data('POLIO3CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('PENTA3CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('PCV3CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>vpi</t>
+  </si>
+  <si>
+    <t>linked_vpi</t>
+  </si>
+  <si>
+    <t>VPI</t>
+  </si>
+  <si>
+    <t>VPI vaccine</t>
+  </si>
+  <si>
+    <t>VPI vaccine {{data.vpi}}</t>
+  </si>
+  <si>
+    <t>VPI vacina {{data.vpi}}</t>
+  </si>
+  <si>
+    <t>VPI vacina</t>
+  </si>
+  <si>
+    <t>data('vpi')</t>
+  </si>
+  <si>
+    <t>vping</t>
+  </si>
+  <si>
+    <t>VPICHECK</t>
+  </si>
+  <si>
+    <t>data('VPICHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('vpi') == null</t>
+  </si>
+  <si>
+    <t>SARAMPO1</t>
+  </si>
+  <si>
+    <t>FEBAMAREL</t>
+  </si>
+  <si>
+    <t>febamarel</t>
+  </si>
+  <si>
+    <t>linked_sarampo</t>
+  </si>
+  <si>
+    <t>linked_febamarel</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vaccine</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vacina</t>
+  </si>
+  <si>
+    <t>SARAMPO1CHECK</t>
+  </si>
+  <si>
+    <t>data('SARAMPO1CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('sarampo1') == null</t>
+  </si>
+  <si>
+    <t>sarampo1ng</t>
+  </si>
+  <si>
+    <t>data('sarampo1')</t>
+  </si>
+  <si>
+    <t>data('febamarel') == null</t>
+  </si>
+  <si>
+    <t>febamarelng</t>
+  </si>
+  <si>
+    <t>data('febamarel')</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vaccine</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vacina</t>
+  </si>
+  <si>
+    <t>FEBAMARELCHECK</t>
+  </si>
+  <si>
+    <t>data('FEBAMARELCHECK') == '2'</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vaccine {{data.febamarel}}</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vacina {{data.febamarel}}</t>
+  </si>
+  <si>
+    <t>sarampo1</t>
+  </si>
+  <si>
+    <t>penta1, polio1, pcv1 or rota1?</t>
+  </si>
+  <si>
+    <t>penta2, polio2, pcv2 or rota2?</t>
+  </si>
+  <si>
+    <t>penta3, polio3, pcv3 or vpi?</t>
+  </si>
+  <si>
+    <t>sarampo1 or febamarel?</t>
+  </si>
+  <si>
+    <t>data('vac1') != '2'</t>
+  </si>
+  <si>
+    <t>data('vac2') != '2'</t>
+  </si>
+  <si>
+    <t>data('vac3') != '2'</t>
+  </si>
+  <si>
+    <t>data('vac4') != '2'</t>
+  </si>
+  <si>
+    <t>data('penta1') == null &amp;&amp; data('polio1') == null &amp;&amp; data('pcv1') == null &amp;&amp; data('rox1') == null</t>
+  </si>
+  <si>
+    <t>data('penta2') == null &amp;&amp; data('polio2') == null &amp;&amp; data('pcv2') == null &amp;&amp; data('rox2') == null</t>
+  </si>
+  <si>
+    <t>data('penta3') == null &amp;&amp; data('polio3') == null &amp;&amp; data('pcv3') == null &amp;&amp; data('vpi') == null</t>
+  </si>
+  <si>
+    <t>data('sarampo1') == null &amp;&amp; data('febamarel') == null</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vaccine {{data.sarampo1}}</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vacina {{data.sarampo1}}</t>
+  </si>
+  <si>
+    <t>PENTA3 vaccine {{data.penta3}}</t>
+  </si>
+  <si>
+    <t>PENTA3 vacina {{data.penta3}}</t>
+  </si>
+  <si>
+    <t>PENTA2 vaccine {{data.penta2}}</t>
+  </si>
+  <si>
+    <t>PENTA2 vacina {{data.penta2}}</t>
+  </si>
+  <si>
+    <t>PENTA1 vaccine {{data.penta1}}</t>
+  </si>
+  <si>
+    <t>PENTA1 vacina {{data.penta1}}</t>
   </si>
 </sst>
 </file>
@@ -457,7 +960,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,12 +970,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +998,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -514,7 +1011,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -522,6 +1018,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -847,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,11 +1422,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,11 +1435,11 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -976,337 +1475,3115 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="D30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="D31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="D32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="D33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="15"/>
+      <c r="D37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="D38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="D39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="D40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="D41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="D58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="D59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="D61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="D63" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="D65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="D92" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="D93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="D94" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" t="s">
+        <v>189</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="D95" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="15"/>
+      <c r="D100" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" t="s">
+        <v>205</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" t="s">
+        <v>223</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="D121" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="D122" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="D124" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="D126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="D128" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H134" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>56</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="10"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="10"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I145" s="10"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="10"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="10"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" t="s">
+        <v>56</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="10"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="10"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="10"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155" t="s">
+        <v>205</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" t="s">
+        <v>203</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="10"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" t="s">
+        <v>223</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="10"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" t="s">
+        <v>238</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="10"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="I161" s="10"/>
+    </row>
+    <row r="162" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="B162" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I162" s="10"/>
+    </row>
+    <row r="163" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="B163" s="15"/>
+      <c r="D163" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F163" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="D4" s="9" t="s">
+      <c r="G163" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H163" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I163" s="10"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" t="s">
+        <v>252</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="10"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" t="s">
+        <v>253</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="10"/>
+    </row>
+    <row r="166" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="B166" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I166" s="10"/>
+    </row>
+    <row r="167" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="B167" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I167" s="10"/>
+    </row>
+    <row r="168" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I168" s="10"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="10"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I171" s="10"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="10"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="10"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" t="s">
+        <v>56</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="I174" s="10"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="10"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="10"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="10"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="10"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="10"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H182" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I182" s="10"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="10"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="10"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" t="s">
+        <v>56</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G185" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H185" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I185" s="10"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="B186" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="10"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="10"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="B188" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="10"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="10"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="10"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G195" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H195" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I195" s="10"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="10"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="10"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G198" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H198" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I198" s="10"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="10"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="10"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="10"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="10"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="10"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G206" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H206" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I206" s="10"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="10"/>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="10"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" t="s">
+        <v>56</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G209" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="H209" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I209" s="10"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="10"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="10"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="10"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="10"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E216" t="s">
+        <v>252</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="10"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E217" t="s">
+        <v>253</v>
+      </c>
+      <c r="F217" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="10"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
+      <c r="B220" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I220" s="10"/>
+    </row>
+    <row r="221" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
+      <c r="B221" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I221" s="10"/>
+    </row>
+    <row r="222" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
+      <c r="B222" s="15"/>
+      <c r="D222" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F222" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="D5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="D6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="G222" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H222" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I222" s="10"/>
+    </row>
+    <row r="223" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
+      <c r="B223" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="I223" s="10"/>
+    </row>
+    <row r="224" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="10"/>
+      <c r="B224" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I224" s="10"/>
+    </row>
+    <row r="225" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
+      <c r="B225" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C225" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I225" s="10"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="10"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G228" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H228" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="I228" s="10"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15"/>
+      <c r="I229" s="10"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="10"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E231" t="s">
+        <v>56</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H231" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I231" s="10"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="10"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="10"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="10"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="10"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="10"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G239" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H239" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I239" s="10"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="10"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="10"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E242" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="F242" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G242" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H242" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="I242" s="10"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="10"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="10"/>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="15"/>
+      <c r="I245" s="10"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="10"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" t="s">
-        <v>73</v>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1318,16 +4595,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1367,261 +4644,593 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>121</v>
       </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" s="13"/>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="13"/>
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="13"/>
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="13"/>
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="13"/>
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="13"/>
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="13"/>
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="13"/>
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="13"/>
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="13"/>
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="13"/>
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="13"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="13"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="13"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="13"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="13"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="13"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="13"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="13"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="13"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="13"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="13"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="13"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="13"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="13"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" s="13"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="13"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="13"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="13"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" s="13"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="13"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" s="13"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" s="13"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" s="13"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H57" s="13"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" s="13"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" s="13"/>
+      <c r="H59" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1630,11 +5239,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,33 +5269,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>81</v>
+      <c r="A2" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1696,11 +5297,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +5326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1734,13 +5335,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1749,100 +5350,70 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
+      <c r="C7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1853,11 +5424,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,10 +5452,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1892,104 +5463,771 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="A5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>110</v>
+      <c r="A7" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>79</v>
+      <c r="A8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>22</v>
+      <c r="A9" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>25</v>
+      <c r="A11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
+      <c r="A12" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C69">
+    <sortCondition ref="A69"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/MIFVAC_CRIANCA/forms/MIFVAC_CRIANCA/MIFVAC_CRIANCA.xlsx
+++ b/app/config/tables/MIFVAC_CRIANCA/forms/MIFVAC_CRIANCA/MIFVAC_CRIANCA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F05B3-717C-4AE8-B6DC-FC3116A36E74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84A61A-DF4F-40E0-9663-4DF7756E57FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4599,7 +4599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
